--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Softwares\eclipse-workspace\automateTasks_POM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC93343-E6E7-4E9E-A516-E0854D7A38FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21068B69-FB97-4B11-B0A3-B67A57AC84B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3E288751-3372-4148-9867-350E5C170502}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TestData" sheetId="1" r:id="rId1"/>
+    <sheet name="Status" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Product Name</t>
   </si>
@@ -55,13 +56,22 @@
   </si>
   <si>
     <t>Bejoise</t>
+  </si>
+  <si>
+    <t>Test Case</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>TC_Search_01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,13 +87,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -99,7 +123,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
@@ -420,7 +446,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,16 +471,16 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -464,4 +490,35 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F96B4B-1C70-45E0-A19A-1AF1709ACFCA}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Softwares\eclipse-workspace\automateTasks_POM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21068B69-FB97-4B11-B0A3-B67A57AC84B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD09A36-BDCA-499B-B186-F07DDD6ECAEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3E288751-3372-4148-9867-350E5C170502}"/>
   </bookViews>
@@ -46,18 +46,12 @@
     <t>Philips PowerPro FC9352</t>
   </si>
   <si>
-    <t>bejoise.antony.in@gmail.com</t>
-  </si>
-  <si>
     <t>Amazon#143</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Bejoise</t>
-  </si>
-  <si>
     <t>Test Case</t>
   </si>
   <si>
@@ -65,6 +59,12 @@
   </si>
   <si>
     <t>TC_Search_01</t>
+  </si>
+  <si>
+    <t>himabejo1@gmail.com</t>
+  </si>
+  <si>
+    <t>Hima</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,7 +467,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -507,15 +507,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
